--- a/Cleaned-Data/2017-Passouts/Sem-5_2017_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2017-Passouts/Sem-5_2017_Passout_cleaned.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="190">
   <si>
     <t>MP-TH</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>P/F</t>
@@ -967,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1002,13 +999,13 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1068,15 +1065,15 @@
         <v>10</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1224,7 +1221,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1292,13 +1289,13 @@
       <c r="W4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>21</v>
+      <c r="X4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1514,13 +1511,13 @@
       <c r="W7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>21</v>
+      <c r="X7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1662,13 +1659,13 @@
       <c r="W9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>21</v>
+      <c r="X9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1890,7 +1887,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1964,7 +1961,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -2106,13 +2103,13 @@
       <c r="W15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>21</v>
+      <c r="X15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2180,13 +2177,13 @@
       <c r="W16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>21</v>
+      <c r="X16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2260,7 +2257,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2334,7 +2331,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -2482,7 +2479,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -2630,7 +2627,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2704,7 +2701,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -2772,13 +2769,13 @@
       <c r="W24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>21</v>
+      <c r="X24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -2852,7 +2849,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -2926,7 +2923,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -3000,7 +2997,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3074,7 +3071,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -3148,7 +3145,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -3222,7 +3219,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -3296,7 +3293,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -3370,7 +3367,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -3438,13 +3435,13 @@
       <c r="W33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>21</v>
+      <c r="X33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -3518,7 +3515,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -3592,7 +3589,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -3666,7 +3663,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -3734,13 +3731,13 @@
       <c r="W37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>21</v>
+      <c r="X37" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -3814,7 +3811,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -3888,7 +3885,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -4030,13 +4027,13 @@
       <c r="W41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X41" s="1" t="s">
-        <v>21</v>
+      <c r="X41" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -4110,7 +4107,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -4184,7 +4181,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -4258,7 +4255,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -4332,7 +4329,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -4406,7 +4403,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -4480,7 +4477,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -4554,7 +4551,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -4628,7 +4625,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -4702,7 +4699,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
@@ -4776,7 +4773,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -4850,7 +4847,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -4924,7 +4921,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -4992,13 +4989,13 @@
       <c r="W54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X54" s="1" t="s">
-        <v>21</v>
+      <c r="X54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -5066,13 +5063,13 @@
       <c r="W55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X55" s="1" t="s">
-        <v>21</v>
+      <c r="X55" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -5220,7 +5217,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -5368,7 +5365,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
         <v>0</v>
@@ -5516,7 +5513,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -5590,7 +5587,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -5664,7 +5661,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -5738,7 +5735,7 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -5812,7 +5809,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -5880,13 +5877,13 @@
       <c r="W66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X66" s="1" t="s">
-        <v>21</v>
+      <c r="X66" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2">
         <v>0</v>
@@ -5960,7 +5957,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2">
         <v>0</v>
@@ -6034,7 +6031,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -6108,7 +6105,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -6182,7 +6179,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2">
         <v>0</v>
@@ -6256,7 +6253,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -6330,7 +6327,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -6404,7 +6401,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -6472,13 +6469,13 @@
       <c r="W74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X74" s="1" t="s">
-        <v>21</v>
+      <c r="X74" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
         <v>0</v>
@@ -6552,7 +6549,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>0</v>
@@ -6620,13 +6617,13 @@
       <c r="W76" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X76" s="1" t="s">
-        <v>21</v>
+      <c r="X76" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>0</v>
@@ -6700,7 +6697,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -6774,7 +6771,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -6842,13 +6839,13 @@
       <c r="W79" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X79" s="1" t="s">
-        <v>21</v>
+      <c r="X79" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
@@ -6916,13 +6913,13 @@
       <c r="W80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X80" s="1" t="s">
-        <v>21</v>
+      <c r="X80" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>0</v>
@@ -6996,7 +6993,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
@@ -7138,13 +7135,13 @@
       <c r="W83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X83" s="1" t="s">
-        <v>21</v>
+      <c r="X83" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -7218,7 +7215,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B85" s="2">
         <v>1</v>
@@ -7292,7 +7289,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
@@ -7366,7 +7363,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2">
         <v>0</v>
@@ -7440,7 +7437,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="2">
         <v>0</v>
@@ -7514,7 +7511,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -7588,7 +7585,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -7662,7 +7659,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2">
         <v>0</v>
@@ -7736,7 +7733,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="2">
         <v>0</v>
@@ -7804,13 +7801,13 @@
       <c r="W92" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X92" s="1" t="s">
-        <v>21</v>
+      <c r="X92" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2">
         <v>0</v>
@@ -7884,7 +7881,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -7958,7 +7955,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2">
         <v>0</v>
@@ -8026,13 +8023,13 @@
       <c r="W95" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X95" s="1" t="s">
-        <v>21</v>
+      <c r="X95" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="2">
         <v>0</v>
@@ -8106,7 +8103,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2">
         <v>0</v>
@@ -8180,7 +8177,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="2">
         <v>0</v>
@@ -8254,7 +8251,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -8328,7 +8325,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -8396,13 +8393,13 @@
       <c r="W100" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X100" s="1" t="s">
-        <v>21</v>
+      <c r="X100" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2">
         <v>0</v>
@@ -8476,7 +8473,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2">
         <v>0</v>
@@ -8544,13 +8541,13 @@
       <c r="W102" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X102" s="1" t="s">
-        <v>21</v>
+      <c r="X102" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
@@ -8624,7 +8621,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -8692,13 +8689,13 @@
       <c r="W104" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X104" s="1" t="s">
-        <v>21</v>
+      <c r="X104" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2">
         <v>0</v>
@@ -8772,7 +8769,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2">
         <v>0</v>
@@ -8840,13 +8837,13 @@
       <c r="W106" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X106" s="1" t="s">
-        <v>21</v>
+      <c r="X106" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2">
         <v>0</v>
@@ -8914,13 +8911,13 @@
       <c r="W107" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X107" s="1" t="s">
-        <v>21</v>
+      <c r="X107" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2">
         <v>0</v>
@@ -8994,7 +8991,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2">
         <v>0</v>
@@ -9068,7 +9065,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -9142,7 +9139,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -9216,7 +9213,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2">
         <v>0</v>
@@ -9284,13 +9281,13 @@
       <c r="W112" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X112" s="1" t="s">
-        <v>21</v>
+      <c r="X112" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -9364,7 +9361,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2">
         <v>0</v>
@@ -9438,7 +9435,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2">
         <v>0</v>
@@ -9512,7 +9509,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -9586,7 +9583,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2">
         <v>0</v>
@@ -9660,7 +9657,7 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
@@ -9728,13 +9725,13 @@
       <c r="W118" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X118" s="1" t="s">
-        <v>21</v>
+      <c r="X118" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2">
         <v>0</v>
@@ -9808,7 +9805,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2">
         <v>0</v>
@@ -9882,7 +9879,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B121" s="2">
         <v>1</v>
@@ -9956,7 +9953,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2">
         <v>0</v>
@@ -10030,7 +10027,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2">
         <v>0</v>
@@ -10104,7 +10101,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B124" s="2">
         <v>1</v>
@@ -10178,7 +10175,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B125" s="2">
         <v>1</v>
@@ -10252,7 +10249,7 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B126" s="2">
         <v>1</v>
@@ -10326,7 +10323,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B127" s="2">
         <v>1</v>
@@ -10400,7 +10397,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2">
         <v>0</v>
@@ -10468,13 +10465,13 @@
       <c r="W128" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X128" s="1" t="s">
-        <v>21</v>
+      <c r="X128" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2">
         <v>0</v>
@@ -10548,7 +10545,7 @@
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2">
         <v>0</v>
@@ -10622,7 +10619,7 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2">
         <v>0</v>
@@ -10696,7 +10693,7 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B132" s="2">
         <v>0</v>
@@ -10770,7 +10767,7 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2">
         <v>0</v>
@@ -10844,7 +10841,7 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B134" s="2">
         <v>0</v>
@@ -10918,7 +10915,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2">
         <v>0</v>
@@ -10992,7 +10989,7 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B136" s="2">
         <v>0</v>
@@ -11066,7 +11063,7 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B137" s="2">
         <v>1</v>
@@ -11140,7 +11137,7 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2">
         <v>0</v>
@@ -11214,7 +11211,7 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139" s="2">
         <v>0</v>
@@ -11288,7 +11285,7 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2">
         <v>0</v>
@@ -11362,7 +11359,7 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2">
         <v>0</v>
@@ -11436,7 +11433,7 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2">
         <v>0</v>
@@ -11510,7 +11507,7 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143" s="2">
         <v>0</v>
@@ -11584,7 +11581,7 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2">
         <v>0</v>
@@ -11658,7 +11655,7 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B145" s="2">
         <v>0</v>
@@ -11732,7 +11729,7 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2">
         <v>0</v>
@@ -11800,13 +11797,13 @@
       <c r="W146" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X146" s="1" t="s">
-        <v>21</v>
+      <c r="X146" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B147" s="2">
         <v>0</v>
@@ -11874,13 +11871,13 @@
       <c r="W147" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X147" s="1" t="s">
-        <v>21</v>
+      <c r="X147" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B148" s="2">
         <v>0</v>
@@ -11948,13 +11945,13 @@
       <c r="W148" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X148" s="1" t="s">
-        <v>21</v>
+      <c r="X148" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2">
         <v>0</v>
@@ -12022,13 +12019,13 @@
       <c r="W149" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X149" s="1" t="s">
-        <v>21</v>
+      <c r="X149" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2">
         <v>0</v>
@@ -12102,7 +12099,7 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2">
         <v>0</v>
@@ -12170,19 +12167,19 @@
       <c r="W151" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X151" s="1" t="s">
-        <v>21</v>
+      <c r="X151" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B152" s="2">
         <v>1</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D152" s="3">
         <v>25</v>
@@ -12244,19 +12241,19 @@
       <c r="W152" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X152" s="1" t="s">
-        <v>21</v>
+      <c r="X152" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B153" s="2">
-        <v>0</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D153" s="3">
         <v>32</v>
@@ -12318,19 +12315,19 @@
       <c r="W153" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X153" s="1" t="s">
-        <v>21</v>
+      <c r="X153" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B154" s="2">
-        <v>0</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D154" s="3">
         <v>21</v>
@@ -12392,19 +12389,19 @@
       <c r="W154" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X154" s="1" t="s">
-        <v>21</v>
+      <c r="X154" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B155" s="2">
-        <v>0</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D155" s="3">
         <v>18</v>
@@ -12466,19 +12463,19 @@
       <c r="W155" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X155" s="1" t="s">
-        <v>21</v>
+      <c r="X155" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B156" s="2">
         <v>1</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D156" s="3">
         <v>32</v>
@@ -12546,13 +12543,13 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B157" s="2">
         <v>1</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D157" s="3">
         <v>32</v>
@@ -12620,13 +12617,13 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B158" s="2">
-        <v>0</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D158" s="3">
         <v>32</v>
